--- a/data dan database/!!!!!!!operator_tiap_kelas_2022!!!!!!.xlsx
+++ b/data dan database/!!!!!!!operator_tiap_kelas_2022!!!!!!.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\db-e-voting-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\e-voting-master\data dan database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652DF4A7-E38A-4405-A61A-42746BFD2DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7001F8-D196-40BE-B95D-4ACAD795E7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2880" yWindow="2880" windowWidth="14400" windowHeight="7270" xr2:uid="{57ADBC3E-ED70-43A5-8983-47659BBBEED4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{57ADBC3E-ED70-43A5-8983-47659BBBEED4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
   <si>
     <t>x pplg</t>
   </si>
@@ -187,20 +187,29 @@
     <t>unit bisnis</t>
   </si>
   <si>
-    <t>unitbisnisbn</t>
+    <t>Username dan Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> unitbisnisbn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -223,8 +232,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B715F7D8-D6F4-433F-BD80-8F1F630B1DFB}">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A5:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -551,7 +566,7 @@
     <col min="2" max="2" width="17.6328125" customWidth="1"/>
     <col min="3" max="3" width="17.36328125" customWidth="1"/>
     <col min="4" max="4" width="17.453125" customWidth="1"/>
-    <col min="5" max="5" width="17.36328125" customWidth="1"/>
+    <col min="5" max="5" width="29.1796875" customWidth="1"/>
     <col min="6" max="6" width="17.54296875" customWidth="1"/>
     <col min="7" max="7" width="17.7265625" customWidth="1"/>
     <col min="8" max="8" width="14.90625" customWidth="1"/>
@@ -566,222 +581,249 @@
     <col min="17" max="17" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>32</v>
-      </c>
-    </row>
     <row r="5" spans="1:17" ht="23" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>49</v>
-      </c>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>2</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" t="s">
+        <v>27</v>
+      </c>
+      <c r="P13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
         <v>36</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C17" t="s">
         <v>38</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D17" t="s">
         <v>40</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E17" t="s">
         <v>42</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F17" t="s">
         <v>44</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G17" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H17" t="s">
         <v>48</v>
       </c>
-      <c r="I8" t="s">
-        <v>50</v>
+      <c r="I17" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C7:G9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>